--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T14:30:00+00:00</t>
+    <t>2025-06-03T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:17:23+00:00</t>
+    <t>2025-06-03T15:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:24:37+00:00</t>
+    <t>2025-06-04T08:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>R5 Profile for specific coded findings like Afib/Flutter status or mTICI score.</t>
+    <t>Profile for specific coded findings like Afib/Flutter status or mTICI score.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -801,7 +801,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/specific-finding-codes-vs</t>
+    <t>http://testSK.org/ValueSet/stroke-finding-codes-vs</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:16:37+00:00</t>
+    <t>2025-06-04T08:27:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:27:13+00:00</t>
+    <t>2025-06-04T08:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:35:18+00:00</t>
+    <t>2025-06-04T08:43:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:43:19+00:00</t>
+    <t>2025-06-04T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:56:07+00:00</t>
+    <t>2025-06-04T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:35:36+00:00</t>
+    <t>2025-08-28T12:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:22:25+00:00</t>
+    <t>2025-08-28T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:34:04+00:00</t>
+    <t>2025-08-28T14:22:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:22:33+00:00</t>
+    <t>2025-08-28T14:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:36:09+00:00</t>
+    <t>2025-08-29T08:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T08:36:57+00:00</t>
+    <t>2025-08-29T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:46:03+00:00</t>
+    <t>2025-09-03T11:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:52:57+00:00</t>
+    <t>2025-09-04T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:43:39+00:00</t>
+    <t>2025-09-05T10:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T10:27:45+00:00</t>
+    <t>2025-09-05T14:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:06:57+00:00</t>
+    <t>2025-09-05T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T16:38:52+00:00</t>
+    <t>2025-09-08T06:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:26:35+00:00</t>
+    <t>2025-09-08T07:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:31:14+00:00</t>
+    <t>2025-09-08T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:17:51+00:00</t>
+    <t>2025-09-08T16:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T16:35:28+00:00</t>
+    <t>2025-09-09T08:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -523,8 +523,8 @@
     <t>Observation.instantiates[x]</t>
   </si>
   <si>
-    <t>canonical(ObservationDefinition)
-Reference(ObservationDefinition)</t>
+    <t>canonical(ObservationDefinition|5.0.0)
+Reference(ObservationDefinition|5.0.0)</t>
   </si>
   <si>
     <t>Instantiates FHIR ObservationDefinition</t>
@@ -549,7 +549,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|5.0.0|DeviceRequest|5.0.0|ImmunizationRecommendation|5.0.0|MedicationRequest|5.0.0|NutritionOrder|5.0.0|ServiceRequest|5.0.0)
 </t>
   </si>
   <si>
@@ -636,7 +636,7 @@
     <t>Observation.triggeredBy.observation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t xml:space="preserve">Reference(Observation|5.0.0)
 </t>
   </si>
   <si>
@@ -773,7 +773,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|5.0.0</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -857,7 +857,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|5.0.0)
 </t>
   </si>
   <si>
@@ -880,7 +880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|5.0.0)
 </t>
   </si>
   <si>
@@ -971,7 +971,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|5.0.0|PractitionerRole|5.0.0|Organization|5.0.0|CareTeam|5.0.0|Patient|5.0.0|RelatedPerson|5.0.0)
 </t>
   </si>
   <si>
@@ -1057,7 +1057,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|5.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1089,7 +1089,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|5.0.0</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1147,7 +1147,7 @@
     <t>SNOMED CT Body site concepts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|5.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">obs-8
@@ -1169,7 +1169,7 @@
     <t>Observation.bodyStructure</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(BodyStructure)
+    <t xml:space="preserve">Reference(BodyStructure|5.0.0)
 </t>
   </si>
   <si>
@@ -1200,7 +1200,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|5.0.0</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1212,7 +1212,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen|Group)
+    <t xml:space="preserve">Reference(Specimen|5.0.0|Group|5.0.0)
 </t>
   </si>
   <si>
@@ -1244,7 +1244,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|5.0.0|DeviceMetric|5.0.0)
 </t>
   </si>
   <si>
@@ -1306,7 +1306,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|5.0.0}
 </t>
   </si>
   <si>
@@ -1347,7 +1347,7 @@
     <t>Codes identifying the normal value of the observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-referencerange-normalvalue</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-referencerange-normalvalue|5.0.0</t>
   </si>
   <si>
     <t>value:IVL_PQ.normal</t>
@@ -1371,7 +1371,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|5.0.0</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1404,7 +1404,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|5.0.0</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1445,7 +1445,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|5.0.0|QuestionnaireResponse|5.0.0|MolecularSequence|5.0.0)
 </t>
   </si>
   <si>
@@ -1464,7 +1464,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|ImagingSelection|QuestionnaireResponse|Observation|MolecularSequence|GenomicStudy)
+    <t xml:space="preserve">Reference(DocumentReference|5.0.0|ImagingStudy|5.0.0|ImagingSelection|5.0.0|QuestionnaireResponse|5.0.0|Observation|5.0.0|MolecularSequence|5.0.0|GenomicStudy|5.0.0)
 </t>
   </si>
   <si>
@@ -1525,7 +1525,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|5.0.0</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1536,7 +1536,7 @@
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence)</t>
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence|5.0.0)</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1918,7 +1918,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="109.15625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="140.859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1933,7 +1933,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.41796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T09:28:44+00:00</t>
+    <t>2025-09-12T08:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T08:57:32+00:00</t>
+    <t>2025-09-15T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T11:30:19+00:00</t>
+    <t>2025-09-15T14:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:10+00:00</t>
+    <t>2025-09-17T09:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:29:40+00:00</t>
+    <t>2025-09-17T10:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T10:41:45+00:00</t>
+    <t>2025-09-17T12:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:21:11+00:00</t>
+    <t>2025-09-17T16:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:26:28+00:00</t>
+    <t>2025-09-17T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:58:51+00:00</t>
+    <t>2025-09-22T08:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:26:26+00:00</t>
+    <t>2025-09-22T08:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:28:48+00:00</t>
+    <t>2025-09-22T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:30:29+00:00</t>
+    <t>2025-09-22T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:34:05+00:00</t>
+    <t>2025-09-22T09:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:31+00:00</t>
+    <t>2025-09-22T09:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:40+00:00</t>
+    <t>2025-09-22T11:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T11:46:58+00:00</t>
+    <t>2025-09-22T13:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T13:11:45+00:00</t>
+    <t>2025-09-22T14:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:03:07+00:00</t>
+    <t>2025-09-22T15:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:14:25+00:00</t>
+    <t>2025-09-22T16:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:06:01+00:00</t>
+    <t>2025-09-22T16:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:51:16+00:00</t>
+    <t>2025-09-22T17:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:06:55+00:00</t>
+    <t>2025-09-22T17:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:32:58+00:00</t>
+    <t>2025-09-22T17:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:48:18+00:00</t>
+    <t>2025-09-22T18:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T18:03:45+00:00</t>
+    <t>2025-09-23T08:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:18:09+00:00</t>
+    <t>2025-09-23T08:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:32:43+00:00</t>
+    <t>2025-09-23T08:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:41:48+00:00</t>
+    <t>2025-09-23T08:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:42:22+00:00</t>
+    <t>2025-09-23T08:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:51:27+00:00</t>
+    <t>2025-09-23T08:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:52:02+00:00</t>
+    <t>2025-09-23T10:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:06:45+00:00</t>
+    <t>2025-09-23T10:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:12+00:00</t>
+    <t>2025-09-23T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:52+00:00</t>
+    <t>2025-09-23T10:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:20:32+00:00</t>
+    <t>2025-09-23T10:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:26:15+00:00</t>
+    <t>2025-09-23T10:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:43:17+00:00</t>
+    <t>2025-09-23T11:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:03:07+00:00</t>
+    <t>2025-09-23T11:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:44:28+00:00</t>
+    <t>2025-09-23T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:00:42+00:00</t>
+    <t>2025-09-23T12:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:55:27+00:00</t>
+    <t>2025-09-23T13:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:35:37+00:00</t>
+    <t>2025-09-23T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:01:22+00:00</t>
+    <t>2025-09-23T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:15:20+00:00</t>
+    <t>2025-09-23T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:32:14+00:00</t>
+    <t>2025-09-23T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:14:11+00:00</t>
+    <t>2025-09-23T16:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:36:06+00:00</t>
+    <t>2025-09-23T17:01:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T17:01:11+00:00</t>
+    <t>2025-09-24T09:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:25:22+00:00</t>
+    <t>2025-09-24T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:35:41+00:00</t>
+    <t>2025-09-24T10:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:48:34+00:00</t>
+    <t>2025-09-24T11:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T11:09:16+00:00</t>
+    <t>2025-09-24T16:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:01:08+00:00</t>
+    <t>2025-09-24T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:38:52+00:00</t>
+    <t>2025-09-25T09:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:51:46+00:00</t>
+    <t>2025-09-25T09:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:12+00:00</t>
+    <t>2025-09-25T10:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:18:49+00:00</t>
+    <t>2025-09-25T10:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:34:09+00:00</t>
+    <t>2025-09-25T11:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T11:37:39+00:00</t>
+    <t>2025-09-25T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T13:52:06+00:00</t>
+    <t>2025-09-25T14:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T14:17:34+00:00</t>
+    <t>2025-09-25T15:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T15:24:58+00:00</t>
+    <t>2025-09-26T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:24:51+00:00</t>
+    <t>2025-09-26T07:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:49:53+00:00</t>
+    <t>2025-09-26T08:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:03:06+00:00</t>
+    <t>2025-09-29T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T10:55:47+00:00</t>
+    <t>2025-09-29T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:14:34+00:00</t>
+    <t>2025-09-29T11:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:58:57+00:00</t>
+    <t>2025-09-29T12:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T12:25:49+00:00</t>
+    <t>2025-09-29T16:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T16:14:38+00:00</t>
+    <t>2025-09-30T09:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:58:20+00:00</t>
+    <t>2025-10-01T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4351,7 +4351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>211</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>220</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>244</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>257</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>273</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>284</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>312</v>
       </c>
@@ -9303,12 +9303,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP61">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T11:45:35+00:00</t>
+    <t>2025-10-02T08:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:30:31+00:00</t>
+    <t>2025-10-02T08:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:31:49+00:00</t>
+    <t>2025-10-02T08:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:40:06+00:00</t>
+    <t>2025-10-02T08:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:55:17+00:00</t>
+    <t>2025-10-02T09:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:37:00+00:00</t>
+    <t>2025-10-02T10:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:13:04+00:00</t>
+    <t>2025-10-02T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:17:19+00:00</t>
+    <t>2025-10-02T10:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:35:00+00:00</t>
+    <t>2025-10-02T10:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:46:31+00:00</t>
+    <t>2025-10-02T10:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:50:34+00:00</t>
+    <t>2025-10-02T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:55:47+00:00</t>
+    <t>2025-10-02T11:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:00:11+00:00</t>
+    <t>2025-10-02T11:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:01:02+00:00</t>
+    <t>2025-10-02T11:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:30:52+00:00</t>
+    <t>2025-10-02T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:45:35+00:00</t>
+    <t>2025-10-02T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:46:56+00:00</t>
+    <t>2025-10-02T12:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:14+00:00</t>
+    <t>2025-10-02T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:42+00:00</t>
+    <t>2025-10-03T09:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T09:35:04+00:00</t>
+    <t>2025-10-03T10:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T10:22:41+00:00</t>
+    <t>2025-10-03T16:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:25:29+00:00</t>
+    <t>2025-10-03T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:32:49+00:00</t>
+    <t>2025-10-06T07:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:31:52+00:00</t>
+    <t>2025-10-07T10:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T10:46:08+00:00</t>
+    <t>2025-10-07T11:37:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:37:10+00:00</t>
+    <t>2025-10-07T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T12:40:55+00:00</t>
+    <t>2025-10-07T16:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T16:03:53+00:00</t>
+    <t>2025-10-09T10:11:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T10:11:37+00:00</t>
+    <t>2025-10-16T13:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:22:06+00:00</t>
+    <t>2025-10-16T13:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:23:59+00:00</t>
+    <t>2025-10-20T09:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:52:43+00:00</t>
+    <t>2025-10-20T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:40:55+00:00</t>
+    <t>2025-10-20T13:57:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:57:50+00:00</t>
+    <t>2025-10-20T14:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T14:31:52+00:00</t>
+    <t>2025-10-21T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:09:58+00:00</t>
+    <t>2025-10-23T09:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:52:59+00:00</t>
+    <t>2025-10-23T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:53:04+00:00</t>
+    <t>2025-10-23T15:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -801,7 +801,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/stroke-finding-codes-vs</t>
+    <t>http://testSK.org/ValueSet/specific-finding-codes-vs</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:20:30+00:00</t>
+    <t>2025-10-27T09:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T09:20:18+00:00</t>
+    <t>2025-10-27T10:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-specific-finding-observation-profile.xlsx
+++ b/StructureDefinition-specific-finding-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:25:48+00:00</t>
+    <t>2025-10-30T10:04:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
